--- a/Keyword Searches/ABM & GW/Cleaning Files/Spelling_Check_SO.xlsx
+++ b/Keyword Searches/ABM & GW/Cleaning Files/Spelling_Check_SO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADVANCES IN WATER RESOURCES</t>
+          <t>2003 IEEE SYSTEMS AND INFORMATION ENGINEERING DESIGN SYMPOSIUM</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -391,7 +391,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AGRICULTURAL WATER MANAGEMENT</t>
+          <t>2009 INTERNATIONAL FORUM ON COMPUTER SCIENCE-TECHNOLOGY AND APPLICATIONS, VOL 1, PROCEEDINGS</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -401,7 +401,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AGRICULTURE ECOSYSTEMS AND ENVIRONMENT</t>
+          <t>2010 INTERNATIONAL CONFERENCE ON MULTIMEDIA AND INFORMATION TECHNOLOGY, MMIT 2010</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -411,17 +411,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>APPLIED ENERGY</t>
+          <t>2011 IEEE SYSTEMS AND INFORMATION ENGINEERING DESIGN SYMPOSIUM (SIEDS)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>APPLIED GEOCHEMISTRY</t>
+          <t>2012 2ND INTERNATIONAL CONFERENCE ON DIGITAL INFORMATION AND COMMUNICATION TECHNOLOGY AND ITS APPLICATIONS, DICTAP 2012</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -431,7 +431,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CLAY MINERALS</t>
+          <t>2012 AMERICAN CONTROL CONFERENCE (ACC)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -441,7 +441,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>COMPTES RENDUS DE L ACADEMIE DES SCIENCES SERIE II FASCICULE A-SCIENCES DE LA TERRE ET DES PLANETES</t>
+          <t>2012 INTERNATIONAL CONFERENCE ON FUTURE INFORMATION TECHNOLOGY AND MANAGEMENT SCIENCE AND ENGINEERING (FITMSE 2012)</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -451,7 +451,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CYBERGEO</t>
+          <t>2012 WINTER SIMULATION CONFERENCE (WSC)</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -461,17 +461,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ECOLOGICAL APPLICATIONS</t>
+          <t>2013 CONFERENCE ON SYSTEMS ENGINEERING RESEARCH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ECOLOGICAL MODELLING</t>
+          <t>2013 IEEE INTERNATIONAL CONFERENCE ON SERVICE OPERATIONS AND LOGISTICS, AND INFORMATICS (SOLI)</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -481,7 +481,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ECOLOGY AND SOCIETY</t>
+          <t>2014 IEEE/WIC/ACM INTERNATIONAL JOINT CONFERENCES ON WEB INTELLIGENCE (WI) AND INTELLIGENT AGENT TECHNOLOGIES (IAT), VOL 3</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -491,7 +491,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ENVIRONMENT AND PLANNING B-PLANNING AND DESIGN</t>
+          <t>2015 WINTER SIMULATION CONFERENCE (WSC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -501,7 +501,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL GEOCHEMISTRY AND HEALTH</t>
+          <t>2016 IEEE AEROSPACE CONFERENCE</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -511,17 +511,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL MODELLING AND SOFTWARE</t>
+          <t>2016 WINTER SIMULATION CONFERENCE (WSC)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL PROCESSES-AN INTERNATIONAL JOURNAL</t>
+          <t>2016 WORLD AUTOMATION CONGRESS (WAC)</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -531,7 +531,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FRONTIERS IN ENVIRONMENTAL SCIENCE</t>
+          <t>2018 IEEE CSAA GUIDANCE, NAVIGATION AND CONTROL CONFERENCE, CGNCC 2018</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -541,7 +541,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GEOMORPHOLOGY</t>
+          <t>21ST INTERNATIONAL CONGRESS ON MODELLING AND SIMULATION (MODSIM2015)</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -551,7 +551,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GLOBAL ENVIRONMENTAL CHANGE</t>
+          <t>3RD INTERNATIONAL DEFENSE AND HOMELAND SECURITY SIMULATION WORKSHOP, DHSS 2013, HELD AT THE INTERNATIONAL MULTIDISCIPLINARY MODELING AND SIMULATION MULTICONFERENCE, I3M 2013</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -561,7 +561,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GROUND WATER</t>
+          <t>3RD INTERNATIONAL WORKSHOP ON ADVANCED COMPUTATIONAL INTELLIGENCE, IWACI 2010</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -571,7 +571,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IAHS-AISH PUBLICATION</t>
+          <t>48TH ANNUAL SIMULATION SYMPOSIUM (ANSS 2015)</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -581,7 +581,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INTERNATIONAL JOURNAL OF OPERATIONS AND QUANTITATIVE MANAGEMENT</t>
+          <t>6TH INTERNATIONAL DEFENSE AND HOMELAND SECURITY SIMULATION WORKSHOP, DHSS 2016</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -591,7 +591,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>JOURNAL OF CLEANER PRODUCTION</t>
+          <t>ACADEMIC JOURNAL OF SECOND MILITARY MEDICAL UNIVERSITY</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -601,7 +601,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JOURNAL OF ENVIRONMENTAL MANAGEMENT</t>
+          <t>ACM INTERNATIONAL CONFERENCE PROCEEDING SERIES</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -611,7 +611,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>JOURNAL OF ENVIRONMENTAL PLANNING AND MANAGEMENT</t>
+          <t>ACM UMAP `19: PROCEEDINGS OF THE 27TH ACM CONFERENCE ON USER MODELING, ADAPTATION AND PERSONALIZATION</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -621,17 +621,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JOURNAL OF HYDROLOGY</t>
+          <t>ADAPTIVE BEHAVIOR</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JOURNAL OF LAND USE SCIENCE</t>
+          <t>ADVANCES IN PRACTICAL APPLICATIONS OF AGENTS AND MULTIAGENT SYSTEMS</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -641,17 +641,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JOURNAL OF WATER RESOURCES PLANNING AND MANAGEMENT</t>
+          <t>APPLIED MECHANICS AND MATERIALS</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LANDSCAPE ECOLOGY</t>
+          <t>AXIOMS</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -661,7 +661,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MEITAN XUEBAO/JOURNAL OF THE CHINA COAL SOCIETY</t>
+          <t>BEHAVIOURAL PROCESSES</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -671,7 +671,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MOUNTAIN RESEARCH AND DEVELOPMENT</t>
+          <t>CARL VON CLAUSEWITZ, THE FOG-OF-WAR, AND THE AI REVOLUTION: THE REAL WORLD IS NOT A GAME OF GO</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -681,7 +681,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NATURE COMMUNICATIONS</t>
+          <t>COMPLEX SYSTEMS-BK 2</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -691,7 +691,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NATURE HUMAN BEHAVIOUR</t>
+          <t>COMPLEXITY</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -701,7 +701,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NONGYE GONGCHENG XUEBAO/TRANSACTIONS OF THE CHINESE SOCIETY OF AGRICULTURAL ENGINEERING</t>
+          <t>CONSTRUCTION RESEARCH CONGRESS 2014: CONSTRUCTION IN A GLOBAL NETWORK - PROCEEDINGS OF THE 2014 CONSTRUCTION RESEARCH CONGRESS</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -711,27 +711,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PHYSICS AND CHEMISTRY OF THE EARTH</t>
+          <t>DETC 2008: PROCEEDINGS OF THE ASME INTERNATIONAL DESIGN ENGINEERING TECHNICAL CONFERENCES AND COMPUTERS AND INFORMATIONAL IN ENGINEERING CONFERENCE, VOL 3, PTS A AND B: 28TH COMPUTERS AND INFORMATION IN ENGINEERING CONFERENCE</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PLANNING THEORY AND PRACTICE</t>
+          <t>DYNAMICS OF CONTINUOUS DISCRETE AND IMPULSIVE SYSTEMS-SERIES A-MATHEMATICAL ANALYSIS</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PLOS ONE</t>
+          <t>EBM 2010: INTERNATIONAL CONFERENCE ON ENGINEERING AND BUSINESS MANAGEMENT, VOLS 1-8</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -741,7 +741,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>REGIONAL ENVIRONMENTAL CHANGE</t>
+          <t>ECOLOGICAL MODELLING</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -751,7 +751,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SEDIMENTOLOGY</t>
+          <t>ENABLING TECHNOLOGIES FOR SIMULATION SCIENCE IX</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -761,7 +761,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SENSORS AND ACTUATORS B-CHEMICAL</t>
+          <t>ENABLING TECHNOLOGIES FOR SIMULATION SCIENCE VI</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -771,7 +771,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SIMULATION AND GAMING</t>
+          <t>ENGINEERING MANAGEMENT IN THE GLOBAL ENVIRONMENTS, PROCEEDINGS</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -781,7 +781,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SIMULATION MODELLING PRACTICE AND THEORY</t>
+          <t>ENVIRONMENTAL MODELLING AND SOFTWARE</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -791,7 +791,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SUSTAINABLE CITIES AND SOCIETY</t>
+          <t>ESM 2008 - 2008 EUROPEAN SIMULATION AND MODELLING CONFERENCE: MODELLING AND SIMULATION 2008</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -801,7 +801,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>URISA JOURNAL</t>
+          <t>EUROPEAN SIMULATION AND MODELLING CONFERENCE 2008</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -811,17 +811,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>WATER</t>
+          <t>FALL SIMULATION INTEROPERABILITY WORKSHOP 2006</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>WATER RESOURCES</t>
+          <t>FALL SIMULATION INTEROPERABILITY WORKSHOP 2007</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -831,27 +831,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>WATER RESOURCES MANAGEMENT</t>
+          <t>ICAART 2020 - PROCEEDINGS OF THE 12TH INTERNATIONAL CONFERENCE ON AGENTS AND ARTIFICIAL INTELLIGENCE</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>WATER RESOURCES RESEARCH</t>
+          <t>IEEE ACCESS</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>WATER SCIENCE AND ENGINEERING</t>
+          <t>IGLC 2012 - 20TH CONFERENCE OF THE INTERNATIONAL GROUP FOR LEAN CONSTRUCTION</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -861,11 +861,431 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>XITONG GONGCHENG LILUN YU SHIJIAN/SYSTEM ENGINEERING THEORY AND PRACTICE</t>
+          <t>IIE ANNUAL CONFERENCE AND EXPO 2015</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL DEFENSE AND HOMELAND SECURITY SIMULATION WORKSHOP, (DHSS 2011)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF HOUSING MARKETS AND ANALYSIS</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL JOURNAL OF SIMULATION AND PROCESS MODELLING</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>INTERNATIONAL STUDIES REVIEW</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ISMSI 2018: PROCEEDINGS OF THE 2ND INTERNATIONAL CONFERENCE ON INTELLIGENT SYSTEMS, METAHEURISTICS AND SWARM INTELLIGENCE</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>JASSS-THE JOURNAL OF ARTIFICIAL SOCIETIES AND SOCIAL SIMULATION</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>JOURNAL OF DEFENSE MODELING AND SIMULATION</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>JOURNAL OF DEFENSE MODELING AND SIMULATION-APPLICATIONS METHODOLOGY TECHNOLOGY-JDMS</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>JOURNAL OF INTERDISCIPLINARY HISTORY</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>JOURNAL OF THE OPERATIONAL RESEARCH SOCIETY</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>JOURNAL OF THEORETICAL BIOLOGY</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>KYBERNETES</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MALARIA JOURNAL</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MANAGEMENT PERSPECTIVES IN THE DIGITAL TRANSFORMATION</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MATHEMATICAL PROBLEMS IN ENGINEERING</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>NATURAL RESOURCE MODELING</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PHILOSOPHY OF COMPLEX SYSTEMS</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PLOS BIOLOGY</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PLOS COMPUTATIONAL BIOLOGY</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PLOS ONE</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PROCEEDINGS - 2011 WORKSHOP AND SCHOOL OF AGENT SYSTEMS, THEIR ENVIRONMENT AND APPLICATIONS, WESAAC 2011</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PROCEEDINGS - 2013 5TH INTERNATIONAL CONFERENCE ON INTELLIGENT HUMAN-MACHINE SYSTEMS AND CYBERNETICS, IHMSC 2013</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PROCEEDINGS OF THE 10TH INTERNATIONAL CONFERENCE ON CYBER WARFARE AND SECURITY (ICCWS-2015)</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PROCEEDINGS OF THE 2004 WINTER SIMULATION CONFERENCE, VOLS 1 AND 2</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PROCEEDINGS OF THE 2005 IEEE SYSTEMS AND INFORMATION ENGINEERING DESIGN SYMPOSIUM</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PROCEEDINGS OF THE 2010 WINTER SIMULATION CONFERENCE</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PROCEEDINGS OF THE 2011 WINTER SIMULATION CONFERENCE (WSC)</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PROCEEDINGS OF THE 5TH ANNUAL ACM CONFERENCE ON LEARNING AT SCALE, L AT S 2018</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PROCEEDINGS OF THE 5TH EXPERIMENTAL CHAOS CONFERENCE</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PUBLIC HEALTH NUTRITION</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SIMULATION MODELLING PRACTICE AND THEORY</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SIMULATION SERIES</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SIMULTECH 2015 - 5TH INTERNATIONAL CONFERENCE ON SIMULATION AND MODELING METHODOLOGIES, TECHNOLOGIES AND APPLICATIONS, PROCEEDINGS</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SMART STRUCTURES, DEVICES, AND SYSTEMS II, PT 1 AND 2</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SUMMER COMPUTER SIMULATION CONFERENCE, SCSC 2010 - PROCEEDINGS OF THE 2010 SUMMER SIMULATION MULTICONFERENCE, SUMMERSIM 2010</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>THE JOURNAL OF DEFENSE MODELING AND SIMULATION: APPLICATIONS, METHODOLOGY, TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>THE VIRTUAL BATTLEFIELD: PERSPECTIVES ON CYBER WARFARE</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>THEORETICAL BIOLOGY FORUM</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>TWELFTH IEEE INTERNATIONAL WORKSHOPS ON ENABLING TECHNOLOGIES: INFRASTRUCTURE FOR COLLABORATIVE ENTERPRISES, PROCEEDINGS</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>WATER</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>XI TONG GONG CHENG YU DIAN ZI JI SHU/SYSTEMS ENGINEERING AND ELECTRONICS</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>XITONG FANGZHEN XUEBAO / JOURNAL OF SYSTEM SIMULATION</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
